--- a/backEnd/huaqi/src/main/resources/file/calendar_eqvltclass.xlsx
+++ b/backEnd/huaqi/src/main/resources/file/calendar_eqvltclass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>用例编号</t>
   </si>
@@ -64,19 +64,25 @@
     <t>无</t>
   </si>
   <si>
+    <t>下一天：2020-1-28</t>
+  </si>
+  <si>
     <t>取等价类Y2M2D2</t>
   </si>
   <si>
     <t>2021,4,29</t>
   </si>
   <si>
+    <t>下一天：2021-4-30</t>
+  </si>
+  <si>
     <t>取等价类Y1M3D3</t>
   </si>
   <si>
     <t>2020,2,30</t>
   </si>
   <si>
-    <t>false，不存在的日期</t>
+    <t>日期错误！</t>
   </si>
   <si>
     <t>取等价类Y2M4D4</t>
@@ -85,28 +91,51 @@
     <t>2021,12,31</t>
   </si>
   <si>
+    <t>下一天：2022-1-1</t>
+  </si>
+  <si>
     <t>取等价类Y1M1D5</t>
   </si>
   <si>
     <t>2020,8,28</t>
   </si>
   <si>
+    <t>下一天：2020-8-29</t>
+  </si>
+  <si>
     <t>取等价类UY1M1D1</t>
   </si>
   <si>
     <t>1876,1,19</t>
   </si>
   <si>
-    <t>false，年份低于下限</t>
+    <t>年不合法!</t>
   </si>
   <si>
     <t>取等价类UY2M3D1</t>
   </si>
   <si>
-    <t>2500,2.26</t>
-  </si>
-  <si>
-    <t>false，年份高于上限</t>
+    <t>2500,2,26</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年不合法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>取等价类Y2UM1D1</t>
@@ -115,6 +144,9 @@
     <t>1999,0,19</t>
   </si>
   <si>
+    <t>月不合法！</t>
+  </si>
+  <si>
     <t>取等价类Y1UM2D5</t>
   </si>
   <si>
@@ -125,6 +157,9 @@
   </si>
   <si>
     <t>2099,2,0</t>
+  </si>
+  <si>
+    <t>日期不合法！</t>
   </si>
   <si>
     <t>取等价类Y1M1UD2</t>
@@ -143,7 +178,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -155,6 +190,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -612,51 +653,48 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,98 +704,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -765,7 +806,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1134,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12"/>
@@ -1166,8 +1210,8 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3">
-        <v>43858</v>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
@@ -1178,13 +1222,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -1192,8 +1236,8 @@
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3">
-        <v>44316</v>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:10">
@@ -1204,13 +1248,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
@@ -1218,8 +1262,8 @@
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:10">
@@ -1230,13 +1274,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -1244,8 +1288,8 @@
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3">
-        <v>44562</v>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
@@ -1256,13 +1300,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -1270,8 +1314,8 @@
       <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3">
-        <v>44072</v>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="13.8" spans="1:10">
@@ -1282,13 +1326,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -1296,8 +1340,8 @@
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>27</v>
+      <c r="J7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="13.8" spans="1:10">
@@ -1308,13 +1352,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
@@ -1322,8 +1366,8 @@
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
+      <c r="J8" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="13.8" spans="1:10">
@@ -1334,13 +1378,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
@@ -1348,8 +1392,8 @@
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
+      <c r="J9" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:10">
@@ -1360,13 +1404,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
@@ -1374,8 +1418,8 @@
       <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
+      <c r="J10" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" ht="13.8" spans="1:10">
@@ -1386,13 +1430,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
@@ -1400,8 +1444,8 @@
       <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>20</v>
+      <c r="J11" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="13.8" spans="1:10">
@@ -1412,13 +1456,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
@@ -1426,8 +1470,8 @@
       <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
+      <c r="J12" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/backEnd/huaqi/src/main/resources/file/calendar_eqvltclass.xlsx
+++ b/backEnd/huaqi/src/main/resources/file/calendar_eqvltclass.xlsx
@@ -153,7 +153,18 @@
     <t>2016,15,31</t>
   </si>
   <si>
-    <t>取等价类Y2M3D5</t>
+    <r>
+      <t>取等价类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y2M3UD1</t>
+    </r>
   </si>
   <si>
     <t>2099,2,0</t>
@@ -806,10 +817,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,14 +1145,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="14" style="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
@@ -1210,7 +1221,7 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1236,7 +1247,7 @@
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1262,7 +1273,7 @@
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1288,7 +1299,7 @@
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1314,7 +1325,7 @@
       <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1340,7 +1351,7 @@
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1366,7 +1377,7 @@
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1392,7 +1403,7 @@
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1418,7 +1429,7 @@
       <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1429,7 +1440,7 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="1">
@@ -1444,7 +1455,7 @@
       <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1470,7 +1481,7 @@
       <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
